--- a/Book.xlsx
+++ b/Book.xlsx
@@ -21,8 +21,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -89,19 +90,23 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -111,17 +116,171 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="A1:B6"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.53"/>
-  </cols>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">RANDBETWEEN(0,10)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
